--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -159,17 +159,7 @@
 dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or (abatement as boolean).not()  or clinicalStatus='resolved' or clinicalStatus='remission' or clinicalStatus='inactive'}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error {verificationStatus='entered-in-error' or clinicalStatus.exists()}</t>
   </si>
   <si>
-    <t>&lt; 243796009 |Situation with explicit context|:
-246090004 |Associated finding| =
-((&lt; 404684003 |Clinical finding| MINUS
-&lt;&lt; 420134006 |Propensity to adverse reactions| MINUS 
-&lt;&lt; 473010000 |Hypersensitivity condition| MINUS 
-&lt;&lt; 79899007 |Drug interaction| MINUS
-&lt;&lt; 69449002 |Drug action| MINUS 
-&lt;&lt; 441742003 |Evaluation finding| MINUS 
-&lt;&lt; 307824009 |Administrative status| MINUS 
-&lt;&lt; 385356007 |Tumor stage finding|) OR
-&lt; 272379006 |Event|)</t>
+    <t>&lt; 243796009 |Situation with explicit context|: 246090004 |Associated finding| = ((&lt; 404684003 |Clinical finding| MINUS &lt;&lt; 420134006 |Propensity to adverse reactions| MINUS  &lt;&lt; 473010000 |Hypersensitivity condition| MINUS  &lt;&lt; 79899007 |Drug interaction| MINUS &lt;&lt; 69449002 |Drug action| MINUS  &lt;&lt; 441742003 |Evaluation finding| MINUS  &lt;&lt; 307824009 |Administrative status| MINUS  &lt;&lt; 385356007 |Tumor stage finding|) OR &lt; 272379006 |Event|)</t>
   </si>
   <si>
     <t>PPR message</t>
@@ -235,8 +225,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -352,7 +341,7 @@
     <t>actualProblem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ActualProblem-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-ActualProblem-1}
 </t>
   </si>
   <si>
@@ -373,7 +362,7 @@
     <t>relatedProblemHeader</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-RelatedProblemHeader-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-RelatedProblemHeader-1}
 </t>
   </si>
   <si>
@@ -386,7 +375,7 @@
     <t>problemSignificance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ProblemSignificance-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-ProblemSignificance-1}
 </t>
   </si>
   <si>
@@ -399,7 +388,7 @@
     <t>relatedClinicalContent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-RelatedClinicalContent-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-RelatedClinicalContent-1}
 </t>
   </si>
   <si>
@@ -527,8 +516,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -619,7 +607,7 @@
     <t>Condition.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -669,8 +657,7 @@
     <t>PRB-14 / DG1-6</t>
   </si>
   <si>
-    <t>Observation ACT
-.inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
+    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
   </si>
   <si>
     <t>status</t>
@@ -685,8 +672,7 @@
     <t>The verification status to support the clinical status of the condition.</t>
   </si>
   <si>
-    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
-This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
+    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.  This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
   </si>
   <si>
     <t>unknown</t>
@@ -708,8 +694,7 @@
     <t>PRB-13</t>
   </si>
   <si>
-    <t>Observation ACT
-.inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
+    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
   </si>
   <si>
     <t>408729009</t>
@@ -727,7 +712,7 @@
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ConditionCategory-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-ConditionCategory-1</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -797,7 +782,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/CodeSystem/CareConnect-ConditionCategory-1</t>
+    <t>https://hl7.org.uk/fhir/CodeSystem/CareConnect-ConditionCategory-1</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -988,16 +973,7 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t>code 246090004 |Associated finding| (&lt; 404684003 |Clinical finding| MINUS
-&lt;&lt; 420134006 |Propensity to adverse reactions| MINUS 
-&lt;&lt; 473010000 |Hypersensitivity condition| MINUS 
-&lt;&lt; 79899007 |Drug interaction| MINUS
-&lt;&lt; 69449002 |Drug action| MINUS 
-&lt;&lt; 441742003 |Evaluation finding| MINUS 
-&lt;&lt; 307824009 |Administrative status| MINUS 
-&lt;&lt; 385356007 |Tumor stage finding|) 
-OR &lt; 413350009 |Finding with explicit context|
-OR &lt; 272379006 |Event|</t>
+    <t>code 246090004 |Associated finding| (&lt; 404684003 |Clinical finding| MINUS &lt;&lt; 420134006 |Propensity to adverse reactions| MINUS  &lt;&lt; 473010000 |Hypersensitivity condition| MINUS  &lt;&lt; 79899007 |Drug interaction| MINUS &lt;&lt; 69449002 |Drug action| MINUS  &lt;&lt; 441742003 |Evaluation finding| MINUS  &lt;&lt; 307824009 |Administrative status| MINUS  &lt;&lt; 385356007 |Tumor stage finding|)  OR &lt; 413350009 |Finding with explicit context| OR &lt; 272379006 |Event|</t>
   </si>
   <si>
     <t>PRB-3</t>
@@ -1031,7 +1007,7 @@
     <t>A code from the SNOMED Clinical Terminology UK</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ConditionCode-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-ConditionCode-1</t>
   </si>
   <si>
     <t>Condition.code.coding.id</t>
@@ -1043,7 +1019,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -1108,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(Group|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -1137,7 +1113,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-EpisodeOfCare-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-EpisodeOfCare-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -1238,7 +1214,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 </t>
   </si>
   <si>
@@ -1431,7 +1407,7 @@
     <t>Condition.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t>Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 string</t>
   </si>
   <si>
@@ -1656,7 +1632,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.37109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.20703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1667,7 +1643,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="69.8515625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="65.78515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="213.0390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
